--- a/downloaded_file.xlsx
+++ b/downloaded_file.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-audrs\Desktop\Excel Templates\Accessibility Project\2018January\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_DAF535FA250C52EBDEC088EAE334FBB3D5B9A78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A280907-7086-48C1-B3C2-4591F9062244}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="11_DAF535FA250C52EBDEC088EAE334FBB3D5B9A78E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD785F2B-6603-4F2D-8BCA-461A8BCC1B6C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Add Doctors Detail" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Average_Calories">#REF!</definedName>
@@ -46,10 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Add Doctors Details : -</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>first_name</t>
   </si>
@@ -91,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14990691854609822"/>
@@ -158,15 +155,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="20"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -331,7 +319,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,12 +358,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51FD4E6-CB1B-404C-9F8E-884C1B6D0B04}">
-  <dimension ref="B3:J12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -725,77 +732,100 @@
     <col min="10" max="10" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="25.5">
-      <c r="C3" s="15" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21">
+        <v>654321</v>
+      </c>
+      <c r="D2" s="22">
+        <v>9604545013</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.70833333333333337</v>
+      </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>654321</v>
-      </c>
-      <c r="F9" s="7">
-        <v>9604545013</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12"/>
+    <row r="10" spans="1:10">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
       <c r="F12" s="1"/>
     </row>
   </sheetData>
